--- a/code/graph/test_loop.xlsx
+++ b/code/graph/test_loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahidovds\Desktop\virtual_for_uswindsens\science_expirement_remote_control\code\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC15CD4D-5498-48E0-8891-D6583CE41539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD494BFE-3BF7-4CC8-83C4-B04C602F90C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="225" windowWidth="27195" windowHeight="15375" xr2:uid="{DEEF072F-304A-4774-ABDD-A0E25A97B7B9}"/>
+    <workbookView minimized="1" xWindow="1350" yWindow="570" windowWidth="27195" windowHeight="15375" xr2:uid="{DEEF072F-304A-4774-ABDD-A0E25A97B7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="test_loop" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C229798-89D8-4B75-9365-C933869226E3}">
   <dimension ref="A1:E1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
